--- a/tabboy/avatar/Type.xlsx
+++ b/tabboy/avatar/Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>种类</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>是否展示</t>
+  </si>
+  <si>
+    <t>IsShow</t>
+  </si>
+  <si>
+    <t>印尼语</t>
+  </si>
+  <si>
+    <t>LangIndonesia</t>
   </si>
   <si>
     <t>AvatarElement</t>
@@ -124,8 +136,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -171,6 +183,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,6 +198,106 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,125 +311,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -335,181 +347,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,17 +574,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,15 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,6 +620,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,177 +662,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +827,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1138,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1269,7 +1284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1289,72 +1304,72 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="1:8">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="17.55" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="1:5">
+    <row r="10" ht="17.55" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="17.55" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1365,13 +1380,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -1382,13 +1397,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1399,9 +1414,9 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
@@ -1411,27 +1426,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" ht="17.55" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" ht="17.55" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
+    <row r="15" ht="17.55" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="17.55" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="17.55" spans="1:2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" ht="17.55" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2"/>
@@ -1448,6 +1489,14 @@
     <row r="22" spans="1:2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabboy/avatar/Type.xlsx
+++ b/tabboy/avatar/Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t>种类</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>LangIndonesia</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
+    <t>OpType</t>
+  </si>
+  <si>
+    <t>选中项</t>
+  </si>
+  <si>
+    <t>SelectIdx</t>
   </si>
   <si>
     <t>AvatarElement</t>
@@ -136,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -183,36 +195,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,7 +296,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,85 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,103 +359,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,73 +515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,74 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -662,99 +606,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,52 +775,52 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1321,7 +1333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1338,72 +1350,72 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="1:8">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" ht="17.55" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="17.55" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="17.55" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="17.55" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1414,13 +1426,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -1431,13 +1443,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1448,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>36</v>
@@ -1460,27 +1472,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" ht="17.55" spans="1:2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" ht="17.55" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:2">
+    <row r="17" ht="17.55" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="17.55" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="17.55" spans="1:2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="17.55" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2"/>
@@ -1497,6 +1535,14 @@
     <row r="24" spans="1:2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
